--- a/data/trans_dic/P12A1_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación &lt;16 años</t>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,45</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,79</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,49</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,82</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,8</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,34</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,55</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,94</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 27,28</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,44</t>
+          <t>0,0; 4,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 23,11</t>
+          <t>0,0; 6,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 22,78</t>
+          <t>0,0; 3,69</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 3,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,86</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,92</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 3,1</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,93</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,76</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>15,55%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>29,93%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>28,12%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 38,5</t>
+          <t>0,46; 4,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 73,04</t>
+          <t>1,31; 15,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 71,86</t>
+          <t>1,55; 17,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,33</t>
+          <t>1,23; 23,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,23</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,22</t>
+          <t>0,0; 4,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,24</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 32,06</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,1; 56,88</t>
+          <t>1,98; 9,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 57,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,32</t>
+          <t>0,66; 6,22</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 3,04</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 8,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 10,25</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 15,01</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,99</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 3,87</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,38</t>
+          <t>0,37; 13,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 60,06</t>
+          <t>1,2; 12,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,27; 88,39</t>
+          <t>1,85; 15,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 51,23</t>
+          <t>1,74; 6,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 43,69</t>
+          <t>0,5; 8,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 44,03</t>
+          <t>2,1; 12,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 52,59</t>
+          <t>1,18; 5,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,85; 47,4</t>
+          <t>1,74; 5,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 58,71</t>
+          <t>2,41; 6,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 47,42</t>
+          <t>1,64; 7,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,63; 68,77</t>
+          <t>2,34; 7,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,98; 42,22</t>
+          <t>1,35; 6,28</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 7,14</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 6,96</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 8,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 5,78</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 6,73</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 9,16</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,18</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,24</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 15,28</t>
+          <t>0,27; 2,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 17,36</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,18</t>
+          <t>0,49; 5,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 17,26</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 18,75</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,14</t>
+          <t>0,25; 3,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 8,83</t>
+          <t>0,46; 3,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 11,98</t>
+          <t>0,91; 6,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 13,09</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 13,76</t>
+          <t>0,88; 5,11</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,48</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 1,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 2,22</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 3,72</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 3,27</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 3,09</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1505,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1231,47 +1520,77 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,72%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,2</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,49</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,96</t>
+          <t>0,0; 4,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,22</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 9,56</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>0,49; 4,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,07</t>
+          <t>0,0; 1,79</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,58</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,03</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,82</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,61</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1720,77 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,52%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 5,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>0,0; 5,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 13,03</t>
+          <t>0,0; 2,29</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 3,75</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,28</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 21,4</t>
+          <t>0,56; 3,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 22,03</t>
+          <t>0,73; 3,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,18; 28,43</t>
+          <t>1,3; 5,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,97</t>
+          <t>1,1; 4,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,69</t>
+          <t>0,72; 2,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,28</t>
+          <t>1,11; 3,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,83</t>
+          <t>0,46; 1,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 13,81</t>
+          <t>0,63; 1,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,32</t>
+          <t>0,74; 1,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,34</t>
+          <t>1,32; 3,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 19,16</t>
+          <t>1,05; 2,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,36</t>
+          <t>1,0; 2,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 1,94</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 2,37</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 2,88</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 3,69</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 2,29</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 2,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7644</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8650</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5980</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5436</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13624</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10809</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9705</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26833</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17917</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32089</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17468</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2449</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2169</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21507</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10894</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10975</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19414</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2302</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1423</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3747; 34098</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19277</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2163; 29924</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2443; 29387</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>322; 3122</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2283</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8558</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26691</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32616</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40309</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22316</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1131</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13618</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>28668</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>36611</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>62625</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1791</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2601; 24955</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7388; 90185</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9221; 103928</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7132; 138383</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2268</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17718</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10161</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14109</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9999; 46819</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>302; 2828</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5070; 32974</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8126; 96525</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>12338; 113724</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>23925; 162903</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1934</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>634; 3631</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20080</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24520</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33167</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25002</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17984</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22351</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28007</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24934</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>38064</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>46872</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>61174</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>49936</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2521; 95663</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8135; 83725</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12558; 105905</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11777; 43669</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>301; 5114</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1277; 7744</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8398; 35970</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12484; 40586</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17190; 47692</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11612; 53459</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1263; 3985</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>743; 3446</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14964; 99739</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25844; 97441</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>37601; 123370</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>30120; 79930</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2413; 7685</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2797; 10596</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3925</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5778</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6759</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9176</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16826</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6731</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10684</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>14954</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>19550</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1511</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17069</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12034</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1735; 15762</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14673</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>282; 3238</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1656</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10701</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1698; 21292</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3032; 22718</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6047; 40216</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1311</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>465; 2709</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2076; 19782</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3700; 26275</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5931; 28738</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>8776; 48972</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>507; 3606</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>757; 3385</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3370</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2723</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6093</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9150</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8546</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16914</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1415</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15017</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16705</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>239; 2105</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 831</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10039</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1678; 15960</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0; 20426</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>249; 2631</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>178; 2385</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1498</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2498</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3772</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1460</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>397; 4145</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2498</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>42861</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>60262</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>80211</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>75674</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4370</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5898</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>31157</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>37383</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>43337</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>72235</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5406</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>74018</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>97645</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>123548</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>147909</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>19175; 107215</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25117; 128567</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>44641; 177012</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>37711; 163600</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2165; 7913</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3344; 10962</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16490; 53473</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>22606; 58099</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>26881; 65778</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>47450; 112812</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3189; 8522</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3028; 7547</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>46017; 137046</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>63749; 166870</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>79866; 202868</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>101366; 259182</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6529; 13870</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>7535; 15675</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
